--- a/Grafico.xlsx
+++ b/Grafico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BAC317-AC87-42CB-A74C-3D8B28EED7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D03C7D-6A51-49A3-AFFD-B082B4F33ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{95C63DC8-FFB0-4F86-A7B4-61C1A88AE925}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Actividades de aprendizaje </t>
   </si>
   <si>
-    <t>Evidencias de nivel de dominio</t>
+    <t>Evidencias del nivel de dominio</t>
   </si>
 </sst>
 </file>
@@ -85,6 +85,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF669900"/>
+      <color rgb="FF008000"/>
+      <color rgb="FF009900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -251,7 +258,7 @@
                   <c:v>Actividades de aprendizaje </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evidencias de nivel de dominio</c:v>
+                  <c:v>Evidencias del nivel de dominio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -617,7 +624,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Evidencias de nivel de dominio</c:v>
+                  <c:v>Evidencias del nivel de dominio</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Actividades de aprendizaje </c:v>
@@ -973,7 +980,7 @@
                   <c:v>Actividades de aprendizaje </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Evidencias de nivel de dominio</c:v>
+                  <c:v>Evidencias del nivel de dominio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1123,6 +1130,7 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="5"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1160,7 +1168,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1190,6 +1198,40 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7112369603516399E-2"/>
+                  <c:y val="0.24086409779741685"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{A9443EC5-37E0-42BE-AA06-68C3656F925D}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOMBRE DE CATEGORÍA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-MX"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1216,7 +1258,7 @@
                   <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -1224,6 +1266,16 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.25711617525925234"/>
+                      <c:h val="0.19907054959838563"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-EA54-4116-896B-109DD9063D66}"/>
                 </c:ext>
@@ -1231,6 +1283,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1356915330277764E-2"/>
+                  <c:y val="-0.13016886795207461"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1245,9 +1303,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent2"/>
+                        <a:srgbClr val="669900"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1257,7 +1315,7 @@
                   <a:endParaRPr lang="es-MX"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -1265,11 +1323,26 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26269801374765744"/>
+                      <c:h val="0.23592964824120599"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-EA54-4116-896B-109DD9063D66}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1302,7 +1375,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Evidencias de nivel de dominio</c:v>
+                  <c:v>Evidencias del nivel de dominio</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Actividades de aprendizaje </c:v>
@@ -1641,7 +1714,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Evidencias de nivel de dominio</c:v>
+                  <c:v>Evidencias del nivel de dominio</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Actividades de aprendizaje </c:v>
@@ -1730,6 +1803,709 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.32374133949191691"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.67221654452546775"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-61B6-464C-8880-16CA92C32E0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-61B6-464C-8880-16CA92C32E0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Actividades de aprendizaje </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evidencias del nivel de dominio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A47-4CE8-8E4F-833F19B7DEC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A1E3-4D6A-9BA6-55F164F1D347}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A1E3-4D6A-9BA6-55F164F1D347}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8333333333333334E-2"/>
+                  <c:y val="-0.13856812933025406"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{0313626A-1557-4E4C-9078-39B807963034}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" sz="1200"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200"/>
+                      </a:pPr>
+                      <a:t>[NOMBRE DE CATEGORÍA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-MX"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.2333611111111111"/>
+                      <c:h val="0.21316685584562992"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A1E3-4D6A-9BA6-55F164F1D347}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3332239720034992E-3"/>
+                  <c:y val="0.24727037099931182"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{FDA043CD-65B9-40BC-A832-75869E8D21A5}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr sz="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[NOMBRE DE CATEGORÍA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-MX"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26252777777777775"/>
+                      <c:h val="0.15988470840683019"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A1E3-4D6A-9BA6-55F164F1D347}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Actividades de aprendizaje </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evidencias del nivel de dominio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1E3-4D6A-9BA6-55F164F1D347}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1927,6 +2703,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
@@ -4007,6 +4863,1045 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4773,15 +6668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4809,15 +6704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>496528</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>70761</xdr:rowOff>
+      <xdr:colOff>407628</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>164196</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4832,8 +6727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10526353" y="1880511"/>
-          <a:ext cx="570272" cy="455385"/>
+          <a:off x="10440628" y="1563011"/>
+          <a:ext cx="570272" cy="471260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4861,7 +6756,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-MX" sz="2400" b="1">
+            <a:rPr lang="es-MX" sz="2800" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -4875,16 +6770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>354203</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>56116</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490728</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>163869</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7065</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300394</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4899,8 +6794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9622028" y="1684891"/>
-          <a:ext cx="571666" cy="493874"/>
+          <a:off x="8999728" y="1243566"/>
+          <a:ext cx="571666" cy="497049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4928,7 +6823,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-MX" sz="2400" b="1">
+            <a:rPr lang="es-MX" sz="2800" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -5112,7 +7007,299 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D033909-7900-1CC7-A0A8-179D6F686BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DA9CBD-9E76-4406-8E7E-1ACD3D54EE69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600677" cy="593304"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CuadroTexto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD649FD-FC84-EDF2-E4D8-F96660E10203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14008100" y="1447800"/>
+          <a:ext cx="600677" cy="593304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.62014</cdr:x>
+      <cdr:y>0.22799</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75152</cdr:x>
+      <cdr:y>0.4401</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CuadroTexto 11">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD649FD-FC84-EDF2-E4D8-F96660E10203}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2835275" y="637739"/>
+          <a:ext cx="600677" cy="593304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-MX" sz="3200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5414,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E3403F-20D7-4B80-BAA5-15189405E21C}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Grafico.xlsx
+++ b/Grafico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\Interconexion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D03C7D-6A51-49A3-AFFD-B082B4F33ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2489232E-65E7-4AB8-B81B-4AEF641CB88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{95C63DC8-FFB0-4F86-A7B4-61C1A88AE925}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{95C63DC8-FFB0-4F86-A7B4-61C1A88AE925}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t xml:space="preserve">Actividades de aprendizaje </t>
   </si>
   <si>
     <t>Evidencias del nivel de dominio</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -270,10 +273,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,7 +383,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -639,10 +642,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +722,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -992,10 +995,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1075,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1200,8 +1203,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7112369603516399E-2"/>
-                  <c:y val="0.24086409779741685"/>
+                  <c:x val="-2.5677715989655087E-2"/>
+                  <c:y val="0.36649230403988448"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1226,7 +1229,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[NOMBRE DE CATEGORÍA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="es-MX"/>
                   </a:p>
@@ -1285,8 +1288,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.1356915330277764E-2"/>
-                  <c:y val="-0.13016886795207461"/>
+                  <c:x val="8.501911794857037E-3"/>
+                  <c:y val="-0.34624915918173543"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1390,10 +1393,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,7 +1473,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1729,10 +1732,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,7 +1812,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1978,10 +1981,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,7 +2091,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2241,7 +2244,7 @@
                       <a:pPr>
                         <a:defRPr sz="1200"/>
                       </a:pPr>
-                      <a:t>[NOMBRE DE CATEGORÍA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="es-MX"/>
                   </a:p>
@@ -2336,7 +2339,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOMBRE DE CATEGORÍA]</a:t>
+                      <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="es-MX"/>
                   </a:p>
@@ -2431,10 +2434,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6761,7 +6764,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>60</a:t>
+            <a:t>50</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6828,7 +6831,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>40</a:t>
+            <a:t>50</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7303,7 +7306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7599,13 +7602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E3403F-20D7-4B80-BAA5-15189405E21C}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7615,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7623,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7657,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -7665,7 +7668,12 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
